--- a/_tmp_/rf22/rf22.xlsx
+++ b/_tmp_/rf22/rf22.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="270" windowWidth="19080" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Packet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Preamble</t>
   </si>
@@ -55,13 +55,112 @@
   </si>
   <si>
     <t>mS</t>
+  </si>
+  <si>
+    <t>RFM22b-868S1</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Si4432</t>
+  </si>
+  <si>
+    <t>Где</t>
+  </si>
+  <si>
+    <t>http://www.riv-e.ru/</t>
+  </si>
+  <si>
+    <t>http://www.abnuniversal.ru</t>
+  </si>
+  <si>
+    <t>XTAL</t>
+  </si>
+  <si>
+    <t>RF switch</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>120nH</t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>2.2u</t>
+  </si>
+  <si>
+    <t>39pF</t>
+  </si>
+  <si>
+    <t>6pF</t>
+  </si>
+  <si>
+    <t>5.6nH</t>
+  </si>
+  <si>
+    <t>50R</t>
+  </si>
+  <si>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>3.3pF</t>
+  </si>
+  <si>
+    <t>68pF</t>
+  </si>
+  <si>
+    <t>11nH</t>
+  </si>
+  <si>
+    <t>3.9pF</t>
+  </si>
+  <si>
+    <t>4.7pF</t>
+  </si>
+  <si>
+    <t>9nH</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>smd.ru</t>
+  </si>
+  <si>
+    <t>Чипдип</t>
+  </si>
+  <si>
+    <t>farnell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +229,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +279,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -225,8 +339,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -236,8 +379,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,14 +407,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="8" builtinId="40"/>
     <cellStyle name="Accent3" xfId="7" builtinId="37"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -574,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -686,12 +839,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>248</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>9920</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>156</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>6240</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">B5*C5</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>SUM(D4:D6)</f>
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v>2.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>0.27</v>
+      </c>
+      <c r="D13">
+        <f>B13*C13</f>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <f>B15*C15</f>
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>0.48</v>
+      </c>
+      <c r="K15">
+        <f>B15*J15</f>
+        <v>96</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D16">
+        <f>B16*C16</f>
+        <v>13.4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
